--- a/exportxlsx/src/main/resources/Watsons-Actualy.xlsx
+++ b/exportxlsx/src/main/resources/Watsons-Actualy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>company-id</t>
   </si>
@@ -113,6 +113,477 @@
     <t>09:00-22:00</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/XxRz395/IMG-1052-HDR.jpg,
+https://i.ibb.co/RD19Vd3/IMG-1058-HDR.jpg,
+https://i.ibb.co/hV01Z7N/IMG-1067-HDR.jpg,
+https://i.ibb.co/h7Kc10G/IMG-1073-HDR.jpg,
+https://i.ibb.co/Qv71b8s/IMG-1076-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург пр-т Испытателей, д. 35</t>
+  </si>
+  <si>
+    <t>30.262609</t>
+  </si>
+  <si>
+    <t>60.008450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/LnpRJLs/IMG-0556-HDR.jpg,
+https://i.ibb.co/5nN75vS/IMG-0559-HDR.jpg,
+https://i.ibb.co/SPtQp02/IMG-0562-HDR.jpg,
+https://i.ibb.co/K7qJNT2/IMG-0565-HDR.jpg,
+https://i.ibb.co/DzrtLv3/IMG-0568-HDR.jpg,
+https://i.ibb.co/wZkRhWZ/IMG-0580-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург пр-т Коломяжский , д.26</t>
+  </si>
+  <si>
+    <t>30.296053</t>
+  </si>
+  <si>
+    <t>60.005417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/ZgsJZYp/IMG-0586-HDR.jpg,
+https://i.ibb.co/c21gXR5/IMG-0592-HDR.jpg,
+https://i.ibb.co/QDtLgqg/IMG-0595-HDR.jpg,
+https://i.ibb.co/yBn1xq2/IMG-0598-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург Торфяная дорога, д.7</t>
+  </si>
+  <si>
+    <t>30.259727</t>
+  </si>
+  <si>
+    <t>59.989382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/MnsMTdf/IMG-0538-HDR.jpg,
+https://i.ibb.co/qBJnkJH/IMG-0544-HDR.jpg,
+https://i.ibb.co/hXrvfBb/IMG-0547-HDR.jpg,
+https://i.ibb.co/tmtDt43/IMG-0550-HDR.jpg,
+https://i.ibb.co/fxHhQ2g/IMG-0553-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург пр-т Комендантский, д.21</t>
+  </si>
+  <si>
+    <t>30.255445</t>
+  </si>
+  <si>
+    <t>60.014025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/bvRBgPD/IMG-0333-HDR.jpg,
+https://i.ibb.co/G7qD1HR/IMG-0339-HDR.jpg,
+https://i.ibb.co/W6h6kLN/IMG-0345-HDR.jpg,
+https://i.ibb.co/jLDNX0B/IMG-0348-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Будапештская, д.49</t>
+  </si>
+  <si>
+    <t>30.381631</t>
+  </si>
+  <si>
+    <t>59.853032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/tpTxnrr/IMG-9356-HDR.jpg,
+https://i.ibb.co/b58hBBm/IMG-9359-HDR.jpg,
+https://i.ibb.co/NyX4m0D/IMG-9362-HDR.jpg,
+https://i.ibb.co/Cb6LB4k/IMG-9365-HDR.jpg,
+https://i.ibb.co/9GXwzWz/IMG-9368-HDR.jpg,
+https://i.ibb.co/Bzgjh6r/IMG-9371-HDR.jpg,
+https://i.ibb.co/vzt5QsC/IMG-9374-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Пражская, д.26</t>
+  </si>
+  <si>
+    <t>30.391960</t>
+  </si>
+  <si>
+    <t>59.872613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/jrXmtBW/IMG-9340-HDR.jpg,
+https://i.ibb.co/Lh2kRgQ/IMG-9343-HDR.jpg,
+https://i.ibb.co/XZWFfrk/IMG-9346-HDR.jpg,
+https://i.ibb.co/hRt7zkZ/IMG-9349-HDR.jpg,
+https://i.ibb.co/r5Z0TSz/IMG-9352-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Большая Московская, д.6</t>
+  </si>
+  <si>
+    <t>30.347747</t>
+  </si>
+  <si>
+    <t>59.926780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/r7T4snT/IMG-0902-HDR.jpg,
+https://i.ibb.co/xqCzdSG/IMG-0908-HDR.jpg,
+https://i.ibb.co/31LRJH7/IMG-0911-HDR.jpg,
+https://i.ibb.co/5sqFyhk/IMG-0914-HDR.jpg,
+https://i.ibb.co/rkwhHqL/IMG-0917-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Восстания, д.22</t>
+  </si>
+  <si>
+    <t>30.359976</t>
+  </si>
+  <si>
+    <t>59.938081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/wc3sqcj/IMG-0920-HDR.jpg,
+https://i.ibb.co/2K52b1j/IMG-0923-HDR.jpg,
+https://i.ibb.co/FhLNng2/IMG-0926-HDR.jpg,
+https://i.ibb.co/hcL04T3/IMG-0929-HDR.jpg,
+https://i.ibb.co/KjNxGpb/IMG-0932-HDR.jpg,
+https://i.ibb.co/tHD6sFb/IMG-0935-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Кирочная, д.23</t>
+  </si>
+  <si>
+    <t>30.361673</t>
+  </si>
+  <si>
+    <t>59.943667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/KKxND88/IMG-0938-HDR.jpg,
+https://i.ibb.co/fSYpmgN/IMG-0941-HDR.jpg,
+https://i.ibb.co/hLDsLCJ/IMG-0944-HDR.jpg,
+https://i.ibb.co/MSHTV0f/IMG-0947-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург Лиговский проспект, д.44</t>
+  </si>
+  <si>
+    <t>30.358476</t>
+  </si>
+  <si>
+    <t>59.926035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/5YLWW5H/IMG-0974-HDR.jpg,
+https://i.ibb.co/LkG5g9b/IMG-0977-HDR.jpg,
+https://i.ibb.co/hDtdN04/IMG-0980-HDR.jpg,
+https://i.ibb.co/P4tBqrF/IMG-0983-HDR.jpg,
+https://i.ibb.co/9b4Y9FH/IMG-0986-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург пр.Московский, д.170</t>
+  </si>
+  <si>
+    <t>30.320863</t>
+  </si>
+  <si>
+    <t>59.878364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/qBm80gS/IMG-1031-HDR.jpg,
+https://i.ibb.co/tZn4N1h/IMG-1034-HDR.jpg,
+https://i.ibb.co/CKWNH9M/IMG-1037-HDR.jpg,
+https://i.ibb.co/kqFQ4bb/IMG-1040-HDR.jpg,
+https://i.ibb.co/gz2nty3/IMG-1043-HDR.jpg,
+https://i.ibb.co/xHWw1HD/IMG-1046-HDR.jpg,
+https://i.ibb.co/SBfLjJv/IMG-1049-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Ломоносова, д.16</t>
+  </si>
+  <si>
+    <t>30.338795</t>
+  </si>
+  <si>
+    <t>59.927608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/gwz0ZBH/IMG-0862-HDR.jpg,
+https://i.ibb.co/R4NjDvm/IMG-0871-HDR.jpg,
+https://i.ibb.co/BVsDjrr/IMG-0874-HDR.jpg,
+https://i.ibb.co/vx0bQD7/IMG-0877-HDR.jpg,
+https://i.ibb.co/m6Mjtjx/IMG-0882-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург Невский проспект, д.128</t>
+  </si>
+  <si>
+    <t>30.366409</t>
+  </si>
+  <si>
+    <t>59.930603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/yF8dxxj/IMG-0998-HDR.jpg,
+https://i.ibb.co/1RbdcDr/IMG-1007-HDR.jpg,
+https://i.ibb.co/X4w1kzL/IMG-1010-HDR.jpg,
+https://i.ibb.co/zXymPHN/IMG-1013-HDR.jpg,
+https://i.ibb.co/ng5Zq18/IMG-1016-HDR.jpg,
+https://i.ibb.co/yhYmMFG/IMG-1019-HDR.jpg,
+https://i.ibb.co/7phsDmZ/IMG-1022-HDR.jpg,
+https://i.ibb.co/DbkCjbj/IMG-1025-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург улица Некрасова, д.60</t>
+  </si>
+  <si>
+    <t>30.368821</t>
+  </si>
+  <si>
+    <t>59.938701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/0mWCwwD/IMG-0953-HDR.jpg,
+https://i.ibb.co/HKNjgKs/IMG-0956-HDR.jpg,
+https://i.ibb.co/HTQ11C3/IMG-0959-HDR.jpg,
+https://i.ibb.co/JqfJB2c/IMG-0962-HDR.jpg,
+https://i.ibb.co/sRK7R3K/IMG-0965-HDR.jpg,
+https://i.ibb.co/SKgbWyb/IMG-0968-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Разъезжая, д.36</t>
+  </si>
+  <si>
+    <t>30.350985</t>
+  </si>
+  <si>
+    <t>59.922589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/NW1NLPG/IMG-0047-HDR.jpg,
+https://i.ibb.co/B3n0TL0/IMG-0051-HDR.jpg,
+https://i.ibb.co/3BxLMJy/IMG-0054-HDR.jpg,
+https://i.ibb.co/7X0QF0k/IMG-0057-HDR.jpg,
+https://i.ibb.co/yq6b1LB/IMG-0060-HDR.jpg,
+https://i.ibb.co/4tmFBQ2/IMG-0063-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Социалистическая, д.1/32</t>
+  </si>
+  <si>
+    <t>30.338988</t>
+  </si>
+  <si>
+    <t>59.924313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/kmD41VR/IMG-0884-HDR.jpg,
+https://i.ibb.co/T1hCSgK/IMG-0890-HDR.jpg,
+https://i.ibb.co/dt8zd0r/IMG-0893-HDR.jpg,
+https://i.ibb.co/0QG3FxJ/IMG-0896-HDR.jpg,
+https://i.ibb.co/3djMH8V/IMG-0899-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>Ленинградская область поселок Гатчина Проспект 25 Октября, д.33</t>
+  </si>
+  <si>
+    <t>30.123897</t>
+  </si>
+  <si>
+    <t>59.570569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/FmzbfPM/IMG-9458-HDR.jpg,
+https://i.ibb.co/W5xYDHs/IMG-9461-HDR.jpg,
+https://i.ibb.co/9qDWrcz/IMG-9464-HDR.jpg,
+https://i.ibb.co/8zWnNPN/IMG-9467-HDR.jpg,
+https://i.ibb.co/SsgZbhh/IMG-9470-HDR.jpg,
+https://i.ibb.co/fds7663/IMG-9473-HDR.jpg,
+https://i.ibb.co/6ZxPy28/IMG-9476-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>Ленинградская область город Выборгул. Батарейная, д.1</t>
+  </si>
+  <si>
+    <t>28.763631</t>
+  </si>
+  <si>
+    <t>60.707193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/gdVqmrL/IMG-9969-HDR.jpg,
+https://i.ibb.co/TKywXY1/IMG-9975-HDR.jpg,
+https://i.ibb.co/DtRx7f2/IMG-9978-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>Ленинградская область город Выборг ул. Ушакова, д.6</t>
+  </si>
+  <si>
+    <t>28.749547</t>
+  </si>
+  <si>
+    <t>60.710966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/GJKdV5q/IMG-9943-HDR.jpg,
+https://i.ibb.co/M7nfYpd/IMG-9949-HDR.jpg,
+https://i.ibb.co/ZHpP12w/IMG-9952-HDR.jpg,
+https://i.ibb.co/qDWL6tj/IMG-9955-HDR.jpg,
+https://i.ibb.co/p0mB0qV/IMG-9958-HDR.jpg,
+https://i.ibb.co/NT1hYTP/IMG-9961-HDR.jpg,
+https://i.ibb.co/ZTPtPRF/IMG-9964-HDR.jpg,
+https://i.ibb.co/zHbPk8K/IMG-9967.jpg
+</t>
+  </si>
+  <si>
+    <t>Ленинградская область Красное Село Проспект Ленина, д.59</t>
+  </si>
+  <si>
+    <t>30.088797</t>
+  </si>
+  <si>
+    <t>59.737998</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7nzZkdg/IMG-9440-HDR.jpg,
+https://i.ibb.co/db4PFCJ/IMG-9443-HDR.jpg,
+https://i.ibb.co/Q8z4d82/IMG-9446-HDR.jpg,
+https://i.ibb.co/k2QLKTp/IMG-9449-HDR.jpg,
+https://i.ibb.co/446dw2w/IMG-9452-HDR.jpg</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул.Ивановская, д. 6</t>
+  </si>
+  <si>
+    <t>30.446291</t>
+  </si>
+  <si>
+    <t>59.875686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/sJC3kR4/IMG-9244-HDR.jpg,
+https://i.ibb.co/4dS92BY/IMG-9247-HDR.jpg,
+https://i.ibb.co/wS4n8dR/IMG-9250-HDR.jpg,
+https://i.ibb.co/MSRDKy2/IMG-9253-HDR.jpg,
+https://i.ibb.co/NW53CYN/IMG-9256-HDR.jpg,
+https://i.ibb.co/PNPtYFJ/IMG-9262-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург Средний проспект ВО д.8</t>
+  </si>
+  <si>
+    <t>30.287257</t>
+  </si>
+  <si>
+    <t>59.945456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/KKtXWff/IMG-0673-HDR.jpg,
+https://i.ibb.co/3mqmCpM/IMG-0676-HDR.jpg,
+https://i.ibb.co/4tnWbZV/IMG-0682-HDR.jpg,
+https://i.ibb.co/hX7LwCH/IMG-0685-HDR.jpg,
+https://i.ibb.co/TmkFbpJ/IMG-0688-HDR.jpg,
+https://i.ibb.co/PDXTBLx/IMG-0691-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Гороховая, д.79</t>
+  </si>
+  <si>
+    <t>30.331109</t>
+  </si>
+  <si>
+    <t>59.922055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/9scv8Sv/IMG-0775-HDR.jpg,
+https://i.ibb.co/nnQ460S/IMG-0778-HDR.jpg,
+https://i.ibb.co/HTRq4JY/IMG-0781-HDR.jpg,
+https://i.ibb.co/j5cKh22/IMG-0784-HDR.jpg,
+https://i.ibb.co/nfHPHR5/IMG-0787-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Декабристов, д.56</t>
+  </si>
+  <si>
+    <t>30.285211</t>
+  </si>
+  <si>
+    <t>59.923891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/Ln3wQLn/IMG-0814-HDR.jpg,
+https://i.ibb.co/9vKk4Y1/IMG-0817-HDR.jpg,
+https://i.ibb.co/RPtvX5x/IMG-0820-HDR.jpg,
+https://i.ibb.co/HBrcSbP/IMG-0823-HDR.jpg,
+https://i.ibb.co/F5j9XdK/IMG-0826-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург Московский проспект, д.49</t>
+  </si>
+  <si>
+    <t>30.317884</t>
+  </si>
+  <si>
+    <t>59.911516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/QHhzLFQ/IMG-0066-HDR.jpg,
+https://i.ibb.co/q0q5Fzv/IMG-0075-HDR.jpg,
+https://i.ibb.co/MkP1KfM/IMG-0078-HDR.jpg,
+https://i.ibb.co/bzqtRm8/IMG-0081-HDR.jpg,
+https://i.ibb.co/N3pJtyL/IMG-0084-HDR.jpg,
+https://i.ibb.co/gSVydmQ/IMG-0087-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Садовая, д.103</t>
+  </si>
+  <si>
+    <t>30.289091</t>
+  </si>
+  <si>
+    <t>59.918973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/QFRjkcK/IMG-0796-HDR.jpg,
+https://i.ibb.co/2g0VVpw/IMG-0799-HDR.jpg,
+https://i.ibb.co/jrPNbNT/IMG-0802-HDR.jpg,
+https://i.ibb.co/Cs3bCtD/IMG-0805-HDR.jpg
+</t>
+  </si>
+  <si>
+    <t>город Санкт-Петербург ул. Садовая, д.60</t>
+  </si>
+  <si>
+    <t>30.303683</t>
+  </si>
+  <si>
+    <t>59.921544</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -120,251 +591,68 @@
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://lh3.googleusercontent.com/WUiyBNPQccUU-TbARaxt8NWnbK0CdnqBXLkEilnYOm0aJA8_nVOXQvi32GRhRfCLQOflGOVT=s0</t>
+      <t xml:space="preserve">https://i.ibb.co/m8Pp2RP/IMG-0835-HDR.jpg,
+</t>
     </r>
-  </si>
-  <si>
-    <t>город Санкт-Петербург пр-т Испытателей, д. 35</t>
-  </si>
-  <si>
-    <t>30.262609</t>
-  </si>
-  <si>
-    <t>60.008450</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург пр-т Коломяжский , д.26</t>
-  </si>
-  <si>
-    <t>30.296053</t>
-  </si>
-  <si>
-    <t>60.005417</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург Торфяная дорога, д.7</t>
-  </si>
-  <si>
-    <t>30.259727</t>
-  </si>
-  <si>
-    <t>59.989382</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург пр-т Комендантский, д.21</t>
-  </si>
-  <si>
-    <t>30.255445</t>
-  </si>
-  <si>
-    <t>60.014025</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Будапештская, д.49</t>
-  </si>
-  <si>
-    <t>30.381631</t>
-  </si>
-  <si>
-    <t>59.853032</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Пражская, д.26</t>
-  </si>
-  <si>
-    <t>30.391960</t>
-  </si>
-  <si>
-    <t>59.872613</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Большая Московская, д.6</t>
-  </si>
-  <si>
-    <t>30.347747</t>
-  </si>
-  <si>
-    <t>59.926780</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Восстания, д.22</t>
-  </si>
-  <si>
-    <t>30.359976</t>
-  </si>
-  <si>
-    <t>59.938081</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Кирочная, д.23</t>
-  </si>
-  <si>
-    <t>30.361673</t>
-  </si>
-  <si>
-    <t>59.943667</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург Лиговский проспект, д.44</t>
-  </si>
-  <si>
-    <t>30.358476</t>
-  </si>
-  <si>
-    <t>59.926035</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург пр.Московский, д.170</t>
-  </si>
-  <si>
-    <t>30.320863</t>
-  </si>
-  <si>
-    <t>59.878364</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Ломоносова, д.16</t>
-  </si>
-  <si>
-    <t>30.338795</t>
-  </si>
-  <si>
-    <t>59.927608</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург Невский проспект, д.128</t>
-  </si>
-  <si>
-    <t>30.366409</t>
-  </si>
-  <si>
-    <t>59.930603</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург улица Некрасова, д.60</t>
-  </si>
-  <si>
-    <t>30.368821</t>
-  </si>
-  <si>
-    <t>59.938701</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Разъезжая, д.36</t>
-  </si>
-  <si>
-    <t>30.350985</t>
-  </si>
-  <si>
-    <t>59.922589</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Социалистическая, д.1/32</t>
-  </si>
-  <si>
-    <t>30.338988</t>
-  </si>
-  <si>
-    <t>59.924313</t>
-  </si>
-  <si>
-    <t>Ленинградская область поселок Гатчина Проспект 25 Октября, д.33</t>
-  </si>
-  <si>
-    <t>30.123897</t>
-  </si>
-  <si>
-    <t>59.570569</t>
-  </si>
-  <si>
-    <t>Ленинградская область город Выборгул. Батарейная, д.1</t>
-  </si>
-  <si>
-    <t>28.763631</t>
-  </si>
-  <si>
-    <t>60.707193</t>
-  </si>
-  <si>
-    <t>Ленинградская область город Выборг ул. Ушакова, д.6</t>
-  </si>
-  <si>
-    <t>28.749547</t>
-  </si>
-  <si>
-    <t>60.710966</t>
-  </si>
-  <si>
-    <t>Ленинградская область Красное Село Проспект Ленина, д.59</t>
-  </si>
-  <si>
-    <t>30.088797</t>
-  </si>
-  <si>
-    <t>59.737998</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул.Ивановская, д. 6</t>
-  </si>
-  <si>
-    <t>30.446291</t>
-  </si>
-  <si>
-    <t>59.875686</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург Средний проспект ВО д.8</t>
-  </si>
-  <si>
-    <t>30.287257</t>
-  </si>
-  <si>
-    <t>59.945456</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Гороховая, д.79</t>
-  </si>
-  <si>
-    <t>30.331109</t>
-  </si>
-  <si>
-    <t>59.922055</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Декабристов, д.56</t>
-  </si>
-  <si>
-    <t>30.285211</t>
-  </si>
-  <si>
-    <t>59.923891</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург Московский проспект, д.49</t>
-  </si>
-  <si>
-    <t>30.317884</t>
-  </si>
-  <si>
-    <t>59.911516</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Садовая, д.103</t>
-  </si>
-  <si>
-    <t>30.289091</t>
-  </si>
-  <si>
-    <t>59.918973</t>
-  </si>
-  <si>
-    <t>город Санкт-Петербург ул. Садовая, д.60</t>
-  </si>
-  <si>
-    <t>30.303683</t>
-  </si>
-  <si>
-    <t>59.921544</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">https://i.ibb.co/DCHJzKq/IMG-0838-HDR.jpg,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">https://i.ibb.co/GfmdfSK/IMG-0841-HDR.jpg,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">https://i.ibb.co/Qv9CYwB/IMG-0847-HDR.jpg,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">https://i.ibb.co/kQWtpTF/IMG-0850-HDR.jpg,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://i.ibb.co/syYzXcv/IMG-0853-HDR.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>город Санкт-Петербург ул. 1-ая Красноармейская, д.14</t>
@@ -376,6 +664,15 @@
     <t>59.915887</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/dsvwQ72/IMG-0730-HDR.jpg,
+https://i.ibb.co/y6jpm80/IMG-0733-HDR.jpg,
+https://i.ibb.co/XWZmF1M/IMG-0739-HDR.jpg,
+https://i.ibb.co/ygnFFZN/IMG-0742-HDR.jpg,
+https://i.ibb.co/h26Zhc7/IMG-0745-HDR.jpg,
+https://i.ibb.co/sCDT57N/IMG-0748-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Малый пр. ВО 72</t>
   </si>
   <si>
@@ -385,6 +682,13 @@
     <t>59.938198</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/Hpdj3N8/IMG-0715-HDR.jpg,
+https://i.ibb.co/3d94Shk/IMG-0718-HDR.jpg,
+https://i.ibb.co/YcvtHkc/IMG-0721-HDR.jpg,
+https://i.ibb.co/0jgvw9t/IMG-0724-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург ул. Большой проспект ВО, д.47</t>
   </si>
   <si>
@@ -394,6 +698,15 @@
     <t>59.937238</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/RzLhbgs/IMG-0697-HDR.jpg,
+https://i.ibb.co/frBF95D/IMG-0700-HDR.jpg,
+https://i.ibb.co/6mw66Yg/IMG-0703-HDR.jpg,
+https://i.ibb.co/qFb0QKy/IMG-0706-HDR.jpg,
+https://i.ibb.co/xmtN7Z9/IMG-0709-HDR.jpg,
+https://i.ibb.co/SXLbCKD/IMG-0712-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Малый пр. 2</t>
   </si>
   <si>
@@ -412,6 +725,14 @@
     <t>59.833171</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/NFyk6rS/IMG-9286-HDR.jpg,
+https://i.ibb.co/CBQtnLg/IMG-9292-HDR.jpg,
+https://i.ibb.co/TTMZ4x2/IMG-9295-HDR.jpg,
+https://i.ibb.co/LrWjM8W/IMG-9301-HDR.jpg,
+https://i.ibb.co/7XFw3Sw/IMG-9304-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Брантовская дорога, д. 3</t>
   </si>
   <si>
@@ -421,6 +742,15 @@
     <t>59.940170</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/VNB8v7V/IMG-0457-HDR.jpg,
+https://i.ibb.co/jgBmbNz/IMG-0463-HDR.jpg,
+https://i.ibb.co/ctmd9Px/IMG-0466-HDR.jpg,
+https://i.ibb.co/DWVrTmN/IMG-0469-HDR.jpg,
+https://i.ibb.co/5MRp8zm/IMG-0472-HDR.jpg,
+https://i.ibb.co/cCy959L/IMG-0481-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Б.Сампсониевский проспект д.76</t>
   </si>
   <si>
@@ -433,6 +763,12 @@
     <t>09:00-22:40</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/fvZGVfz/IMG-0421-HDR.jpg,
+https://i.ibb.co/DrZPyFL/IMG-0427-HDR.jpg,
+https://i.ibb.co/M502KXf/IMG-0430-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург ул. Есенина, д.5б</t>
   </si>
   <si>
@@ -442,6 +778,13 @@
     <t>60.037099</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/L68JVrJ/IMG-0227-HDR.jpg,
+https://i.ibb.co/Wp4nfPM/IMG-0233-HDR.jpg,
+https://i.ibb.co/WpY8NXR/IMG-0242-HDR.jpg,
+https://i.ibb.co/H4h1qSq/IMG-0248-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Просвещения проспект, д.69</t>
   </si>
   <si>
@@ -451,6 +794,12 @@
     <t>60.039851</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/zP7Qwbr/IMG-0124-HDR.jpg,
+https://i.ibb.co/s3MY5BT/IMG-0130-HDR.jpg,
+https://i.ibb.co/J2xQTsg/IMG-0133-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Тихорецкий проспект, д.12</t>
   </si>
   <si>
@@ -460,6 +809,15 @@
     <t>60.014358</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/B44jK3g/IMG-0002-HDR.jpg,
+https://i.ibb.co/cX5WRwZ/IMG-0008-HDR.jpg,
+https://i.ibb.co/PTRzqvG/IMG-0011-HDR.jpg,
+https://i.ibb.co/vz7RTKz/IMG-0014-HDR.jpg,
+https://i.ibb.co/M7tWfmv/IMG-0017-HDR.jpg,
+https://i.ibb.co/191Jnxj/IMG-9998-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург проспект Художников, д.14</t>
   </si>
   <si>
@@ -469,6 +827,13 @@
     <t>60.038825</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/B6HDxcN/IMG-0209-HDR.jpg,
+https://i.ibb.co/kBMfCS4/IMG-0215-HDR.jpg,
+https://i.ibb.co/7r4gw9K/IMG-0218-HDR.jpg,
+https://i.ibb.co/DwhdSks/IMG-0221-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург проспект Художников, д.26</t>
   </si>
   <si>
@@ -478,6 +843,15 @@
     <t>60.048226</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/tMnfwrJ/IMG-0179-HDR.jpg,
+https://i.ibb.co/r7qdTbK/IMG-0188-HDR.jpg,
+https://i.ibb.co/GPKg9xM/IMG-0191-HDR.jpg,
+https://i.ibb.co/kS1DtLK/IMG-0194-HDR.jpg,
+https://i.ibb.co/5xnCK8K/IMG-0197-HDR.jpg,
+https://i.ibb.co/WfHZ3VW/IMG-0203-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург ул. Федора Абрамова, д. 4</t>
   </si>
   <si>
@@ -487,6 +861,11 @@
     <t>60.069905</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/wp7YyDy/IMG-0167-HDR.jpg,
+https://i.ibb.co/RTN3XsQ/IMG-0173-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>Кондратьевский проспект, д.52</t>
   </si>
   <si>
@@ -496,6 +875,14 @@
     <t>59.974795</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/xzhHFf6/IMG-0339-HDR.jpg,
+https://i.ibb.co/h8mJTrS/IMG-0345-HDR.jpg,
+https://i.ibb.co/4SLSxrv/IMG-0348-HDR.jpg,
+https://i.ibb.co/B2bVX2C/IMG-0354-HDR.jpg,
+https://i.ibb.co/TgFq33K/IMG-0357-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург площадь Ленина, д.8</t>
   </si>
   <si>
@@ -505,6 +892,15 @@
     <t>59.957114</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/6JxM61k/IMG-0366-HDR.jpg,
+https://i.ibb.co/kx0WtNb/IMG-0372-HDR.jpg,
+https://i.ibb.co/gMwQ1Pm/IMG-0375-HDR.jpg,
+https://i.ibb.co/4mNL3zX/IMG-0384-HDR.jpg,
+https://i.ibb.co/Chp5m2p/IMG-0387-HDR.jpg,
+https://i.ibb.co/zG4KG82/IMG-0390-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург пр.Обуховской обороны , д.227/1</t>
   </si>
   <si>
@@ -514,6 +910,14 @@
     <t>59.864803</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/K0BtLsW/IMG-9268-HDR.jpg,
+https://i.ibb.co/Fgsq64W/IMG-9271-HDR.jpg,
+https://i.ibb.co/JjXXqR4/IMG-9274-HDR.jpg,
+https://i.ibb.co/M56VdQs/IMG-9277-HDR.jpg,
+https://i.ibb.co/3pdJXFm/IMG-9280-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Лесной проспект, д.3</t>
   </si>
   <si>
@@ -523,6 +927,14 @@
     <t>59.962170</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/XCMJbzv/IMG-0400-HDR.jpg,
+https://i.ibb.co/3R71S6j/IMG-0403-HDR.jpg,
+https://i.ibb.co/c6cfYbs/IMG-0409-HDR.jpg,
+https://i.ibb.co/7nprxf3/IMG-0412-HDR.jpg,
+https://i.ibb.co/9cSYLLQ/IMG-0415-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Металлистов проспект, д.100</t>
   </si>
   <si>
@@ -532,6 +944,13 @@
     <t>59.969537</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/NZ4Lhk0/IMG-0299-HDR.jpg,
+https://i.ibb.co/VNpFm1H/IMG-0302-HDR.jpg,
+https://i.ibb.co/GWNrc24/IMG-0305-HDR.jpg,
+https://i.ibb.co/1YNSmVW/IMG-0311-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Науки проспект, д.21</t>
   </si>
   <si>
@@ -541,6 +960,13 @@
     <t>60.011165</t>
   </si>
   <si>
+    <t>https://i.ibb.co/fqzxpLp/d-EEs-Yh2v-OBU.jpg,
+https://i.ibb.co/kDyVJY6/mzb2-JIW-Rg.jpg,
+https://i.ibb.co/5jxNPdr/tavag-Iby-BM.jpg,
+https://i.ibb.co/864nYrm/YSqtnp2-Jep-M.jpg,
+https://i.ibb.co/3svqpwS/z-HS3-Px-Mrnq-Q.jpg</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Науки проспект, д.38</t>
   </si>
   <si>
@@ -550,6 +976,15 @@
     <t>60.007767</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/VNcgw6w/IMG-0254-HDR.jpg,
+https://i.ibb.co/QDqnM8j/IMG-0260-HDR.jpg,
+https://i.ibb.co/FJh5cyx/IMG-0263-HDR.jpg,
+https://i.ibb.co/vV4FMsG/IMG-0266-HDR.jpg,
+https://i.ibb.co/gm7Nt0v/IMG-0269-HDR.jpg,
+https://i.ibb.co/qpPvDQM/IMG-0272-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Лермонтовский пр., д.38</t>
   </si>
   <si>
@@ -559,6 +994,15 @@
     <t>59.915490</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/HY55NS9/IMG-0751-HDR.jpg,
+https://i.ibb.co/b3LfS98/IMG-0754-HDR.jpg,
+https://i.ibb.co/n64YkFd/IMG-0760-HDR.jpg,
+https://i.ibb.co/vz1rYvs/IMG-0763-HDR.jpg,
+https://i.ibb.co/k9rpKN4/IMG-0769-HDR.jpg,
+https://i.ibb.co/CMy0dD0/IMG-0772-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Энергетиков проспект, д 70</t>
   </si>
   <si>
@@ -568,6 +1012,15 @@
     <t>59.972017</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/P1D2SFM/IMG-0275-HDR.jpg,
+https://i.ibb.co/gWNF9fr/IMG-0281-HDR.jpg,
+https://i.ibb.co/t2fr25N/IMG-0284-HDR.jpg,
+ https://i.ibb.co/xHmz4tS/IMG-0287-HDR.jpg,
+https://i.ibb.co/qdnYy7j/IMG-0290-HDR.jpg,
+https://i.ibb.co/CtZbjYv/IMG-0293-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Старо-Петергофский проспект, д.35Б</t>
   </si>
   <si>
@@ -577,6 +1030,15 @@
     <t>59.903626</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/JytR5dr/IMG-9377-HDR.jpg,
+https://i.ibb.co/mhZ1gPj/IMG-9380-HDR.jpg,
+https://i.ibb.co/ysjpZCR/IMG-9383-HDR.jpg,
+https://i.ibb.co/N3WHZxt/IMG-9386-HDR.jpg,
+https://i.ibb.co/j9Kfxtn/IMG-9389-HDR.jpg,
+https://i.ibb.co/3rvhmjq/IMG-9392-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Стачек проспект, д.47</t>
   </si>
   <si>
@@ -586,6 +1048,16 @@
     <t>59.880895</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/1mzK2F2/IMG-9395-HDR.jpg,
+https://i.ibb.co/w7Ptrjh/IMG-9398-HDR.jpg,
+https://i.ibb.co/J3LKFcJ/IMG-9401-HDR.jpg,
+https://i.ibb.co/6JDqd7M/IMG-9404-HDR.jpg,
+https://i.ibb.co/fqC5pxB/IMG-9410-HDR.jpg,
+https://i.ibb.co/C8KFS8V/IMG-9413-HDR.jpg,
+https://i.ibb.co/M282RRG/IMG-9416-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Стачек проспект, д. 75</t>
   </si>
   <si>
@@ -595,6 +1067,13 @@
     <t>59.867189</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/St20XMx/IMG-9422-HDR.jpg,
+https://i.ibb.co/qMgQ0N7/IMG-9425-HDR.jpg,
+https://i.ibb.co/KjRBpn3/IMG-9428-HDR.jpg,
+https://i.ibb.co/mJQ0hDr/IMG-9434-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург ул. Тверская, д.34</t>
   </si>
   <si>
@@ -604,6 +1083,14 @@
     <t>59.740893</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/gv4p4md/IMG-9316-HDR.jpg,
+https://i.ibb.co/1ZWpTMx/IMG-9319-HDR.jpg,
+https://i.ibb.co/s2HXmq8/IMG-9325-HDR.jpg,
+https://i.ibb.co/zbMBf20/IMG-9334-HDR.jpg,
+https://i.ibb.co/X33Vdbg/IMG-9337-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург пр. Пятилеток , д.6</t>
   </si>
   <si>
@@ -613,6 +1100,14 @@
     <t>59.921561</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/tzTR20x/IMG-9229-HDR.jpg,
+https://i.ibb.co/XypvZQN/IMG-9232-HDR.jpg,
+https://i.ibb.co/XDCT70h/IMG-9235-HDR.jpg,
+https://i.ibb.co/qC41YRL/IMG-9238-HDR.jpg,
+https://i.ibb.co/840TDdb/IMG-9241-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Заневский проспект, д.9/8</t>
   </si>
   <si>
@@ -622,6 +1117,13 @@
     <t>59.927930</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/WyK1G4M/IMG-0493-HDR.jpg,
+https://i.ibb.co/gyJDj4c/IMG-0496-HDR.jpg,
+https://i.ibb.co/KV5gLJx/IMG-0502-HDR.jpg,
+https://i.ibb.co/Rzjq5Cd/IMG-0505-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Наставников проспект, д.35</t>
   </si>
   <si>
@@ -631,6 +1133,16 @@
     <t>59.950032</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/7YLWPsn/IMG-0514-HDR.jpg,
+https://i.ibb.co/wNxJy6R/IMG-0517-HDR.jpg,
+https://i.ibb.co/cyPZxhR/IMG-0520-HDR.jpg,
+https://i.ibb.co/RNyWgT7/IMG-0523-HDR.jpg,
+https://i.ibb.co/sP3tgLr/IMG-0526-HDR.jpg,
+https://i.ibb.co/bLm3VzN/IMG-0532-HDR.jpg,
+https://i.ibb.co/f2WN8SB/IMG-0535-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Шоссе Революции, д.20</t>
   </si>
   <si>
@@ -640,6 +1152,14 @@
     <t>59.959785</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/TmpR5Hb/IMG-0433-HDR.jpg,
+https://i.ibb.co/s6zvfRs/IMG-0436-HDR.jpg,
+https://i.ibb.co/pv6XRrY/IMG-0439-HDR.jpg,
+https://i.ibb.co/30P9C0Y/IMG-0445-HDR.jpg,
+https://i.ibb.co/PrcWQJP/IMG-0451-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Заневский проспект, д.16</t>
   </si>
   <si>
@@ -649,6 +1169,15 @@
     <t>59.929547</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/SrLrbhF/IMG-0020-HDR.jpg,
+https://i.ibb.co/nfLwNYF/IMG-0023-HDR.jpg,
+https://i.ibb.co/4ZYM0Rm/IMG-0026-HDR.jpg,
+https://i.ibb.co/SV5FnJF/IMG-0029-HDR.jpg,
+https://i.ibb.co/kQp5xXL/IMG-0032-HDR.jpg,
+https://i.ibb.co/xXJzg0V/IMG-0035-HDR.jpg
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">город Санкт-Петербург ул.Cытнинская ул.10 </t>
   </si>
   <si>
@@ -658,6 +1187,14 @@
     <t>59.957785</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/nnqK66j/IMG-0625-HDR.jpg,
+https://i.ibb.co/xXwHjQH/IMG-0631-HDR.jpg,
+https://i.ibb.co/rwkH80z/IMG-0634-HDR.jpg,
+https://i.ibb.co/wcbRW0Z/IMG-0637-HDR.jpg,
+https://i.ibb.co/YLnSy1V/IMG-0640-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Большой проспект Петроградской стороны, д.7</t>
   </si>
   <si>
@@ -667,6 +1204,15 @@
     <t>59.954008</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/SVmG8WD/IMG-0646-HDR.jpg,
+https://i.ibb.co/p2z2Vv9/IMG-0649-HDR.jpg,
+https://i.ibb.co/9hW5c3n/IMG-0652-HDR.jpg,
+https://i.ibb.co/GQZW254/IMG-0655-HDR.jpg,
+https://i.ibb.co/y6QYpH9/IMG-0658-HDR.jpg,
+https://i.ibb.co/dPTQcV9/IMG-0667-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Большой пр.ПС, д.102</t>
   </si>
   <si>
@@ -676,6 +1222,15 @@
     <t>59.967009</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/zQdhyTg/IMG-0607-HDR.jpg,
+https://i.ibb.co/3yGLvDV/IMG-0610-HDR.jpg,
+https://i.ibb.co/2npbQ1t/IMG-0613-HDR.jpg,
+https://i.ibb.co/8KCSqJq/IMG-0616-HDR.jpg,
+https://i.ibb.co/SvbKVwb/IMG-0619-HDR.jpg,
+https://i.ibb.co/wzWHPfp/IMG-0622-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Перекупной переулок д. 2</t>
   </si>
   <si>
@@ -685,6 +1240,11 @@
     <t>59.927503</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/5GF8dxS/IMG-0038-HDR.jpg,
+https://i.ibb.co/sW7ds9m/IMG-0041-HDR.jpg
+</t>
+  </si>
+  <si>
     <t>город Санкт-Петербург Среднеохтинский пр. 49</t>
   </si>
   <si>
@@ -694,7 +1254,12 @@
     <t>59.958088</t>
   </si>
   <si>
-    <t>9 (812) 677-34-05</t>
+    <t xml:space="preserve">https://i.ibb.co/TP62Xrc/IMG-0314-HDR.jpg,
+https://i.ibb.co/dbTXPnB/IMG-0318-HDR.jpg,
+https://i.ibb.co/jrXWp2B/IMG-0321-HDR.jpg,
+https://i.ibb.co/JvdgtM6/IMG-0324-HDR.jpg,
+https://i.ibb.co/c6f4PSL/IMG-0327-HDR.jpg
+</t>
   </si>
 </sst>
 </file>
@@ -811,7 +1376,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -865,6 +1430,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,7 +2534,7 @@
     <col min="19" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1">
+    <row r="1" ht="17.45" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2022,7 +2590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="42.5" customHeight="1">
+    <row r="2" ht="88.5" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2072,7 +2640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" ht="99.75" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2108,9 +2676,11 @@
       <c r="O3" s="9"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="R3" t="s" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="72" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2121,17 +2691,17 @@
         <v>18</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s" s="4">
         <v>24</v>
@@ -2146,9 +2716,11 @@
       <c r="O4" s="9"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="17"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="R4" t="s" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="81" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2159,17 +2731,17 @@
         <v>18</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="4">
         <v>24</v>
@@ -2184,9 +2756,11 @@
       <c r="O5" s="9"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="R5" t="s" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="74.25" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2197,17 +2771,17 @@
         <v>18</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s" s="4">
         <v>24</v>
@@ -2222,9 +2796,11 @@
       <c r="O6" s="9"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="R6" t="s" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="102.75" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2235,17 +2811,17 @@
         <v>18</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" t="s" s="4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s" s="4">
         <v>24</v>
@@ -2260,9 +2836,11 @@
       <c r="O7" s="9"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="17"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="R7" t="s" s="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="99.75" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2273,17 +2851,17 @@
         <v>18</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" t="s" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s" s="4">
         <v>24</v>
@@ -2298,9 +2876,11 @@
       <c r="O8" s="9"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="17"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="R8" t="s" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" ht="76.5" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2311,17 +2891,17 @@
         <v>18</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" t="s" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s" s="4">
         <v>24</v>
@@ -2336,9 +2916,11 @@
       <c r="O9" s="9"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="R9" t="s" s="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="104.25" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2349,17 +2931,17 @@
         <v>18</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" t="s" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s" s="4">
         <v>24</v>
@@ -2374,9 +2956,11 @@
       <c r="O10" s="9"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="17"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="R10" t="s" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" ht="81" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2387,17 +2971,17 @@
         <v>18</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" t="s" s="4">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s" s="4">
         <v>24</v>
@@ -2412,9 +2996,11 @@
       <c r="O11" s="9"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="R11" t="s" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="89.25" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2425,17 +3011,17 @@
         <v>18</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" t="s" s="4">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s" s="4">
         <v>24</v>
@@ -2450,9 +3036,11 @@
       <c r="O12" s="9"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="R12" t="s" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="123.75" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2463,17 +3051,17 @@
         <v>18</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" t="s" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="4">
         <v>24</v>
@@ -2488,9 +3076,11 @@
       <c r="O13" s="9"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="17"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="R13" t="s" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" ht="84" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2501,17 +3091,17 @@
         <v>18</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" t="s" s="4">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="4">
         <v>24</v>
@@ -2526,9 +3116,11 @@
       <c r="O14" s="9"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="R14" t="s" s="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="111.75" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2539,17 +3131,17 @@
         <v>18</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" t="s" s="4">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="4">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="4">
         <v>24</v>
@@ -2564,9 +3156,11 @@
       <c r="O15" s="9"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="17"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="R15" t="s" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="99.75" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2577,17 +3171,17 @@
         <v>18</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" t="s" s="4">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="4">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="4">
         <v>24</v>
@@ -2602,9 +3196,11 @@
       <c r="O16" s="9"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="R16" t="s" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" ht="96.75" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2615,17 +3211,17 @@
         <v>18</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" t="s" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="4">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="4">
         <v>24</v>
@@ -2640,9 +3236,11 @@
       <c r="O17" s="9"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="17"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="R17" t="s" s="15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" ht="84.75" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2653,17 +3251,17 @@
         <v>18</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" t="s" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="4">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="4">
         <v>24</v>
@@ -2678,9 +3276,11 @@
       <c r="O18" s="9"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="R18" t="s" s="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="92.25" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2691,17 +3291,17 @@
         <v>18</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" t="s" s="4">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="4">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s" s="4">
         <v>24</v>
@@ -2716,9 +3316,11 @@
       <c r="O19" s="9"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="17"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="R19" t="s" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" ht="57.75" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2729,17 +3331,17 @@
         <v>18</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" t="s" s="4">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s" s="4">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s" s="4">
         <v>24</v>
@@ -2754,9 +3356,11 @@
       <c r="O20" s="9"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="17"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="R20" t="s" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="102" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2767,17 +3371,17 @@
         <v>18</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" t="s" s="4">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s" s="4">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s" s="4">
         <v>24</v>
@@ -2792,9 +3396,11 @@
       <c r="O21" s="9"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="17"/>
-    </row>
-    <row r="22" ht="12.5" customHeight="1">
+      <c r="R21" t="s" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" ht="63.75" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2805,17 +3411,17 @@
         <v>18</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" t="s" s="4">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s" s="4">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s" s="4">
         <v>24</v>
@@ -2830,9 +3436,11 @@
       <c r="O22" s="9"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" ht="12.5" customHeight="1">
+      <c r="R22" t="s" s="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" ht="89.25" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2843,17 +3451,17 @@
         <v>18</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" t="s" s="4">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s" s="4">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s" s="4">
         <v>24</v>
@@ -2868,9 +3476,11 @@
       <c r="O23" s="9"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="17"/>
-    </row>
-    <row r="24" ht="12.5" customHeight="1">
+      <c r="R23" t="s" s="15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" ht="89.25" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2881,17 +3491,17 @@
         <v>18</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" t="s" s="4">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s" s="4">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s" s="4">
         <v>24</v>
@@ -2906,9 +3516,11 @@
       <c r="O24" s="9"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="14"/>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25" ht="12.5" customHeight="1">
+      <c r="R24" t="s" s="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" ht="76.5" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2919,17 +3531,17 @@
         <v>18</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" t="s" s="4">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s" s="4">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s" s="4">
         <v>24</v>
@@ -2944,9 +3556,11 @@
       <c r="O25" s="9"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="17"/>
-    </row>
-    <row r="26" ht="12.5" customHeight="1">
+      <c r="R25" t="s" s="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" ht="76.5" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2957,17 +3571,17 @@
         <v>18</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" t="s" s="4">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s" s="4">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s" s="4">
         <v>24</v>
@@ -2982,9 +3596,11 @@
       <c r="O26" s="9"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" ht="12.5" customHeight="1">
+      <c r="R26" t="s" s="18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" ht="89.25" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2995,17 +3611,17 @@
         <v>18</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" t="s" s="4">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s" s="4">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s" s="4">
         <v>24</v>
@@ -3020,9 +3636,11 @@
       <c r="O27" s="9"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="14"/>
-      <c r="R27" s="17"/>
-    </row>
-    <row r="28" ht="12.5" customHeight="1">
+      <c r="R27" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" ht="63.75" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3033,17 +3651,17 @@
         <v>18</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" t="s" s="4">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s" s="4">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s" s="4">
         <v>24</v>
@@ -3058,9 +3676,11 @@
       <c r="O28" s="9"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="17"/>
-    </row>
-    <row r="29" ht="12.5" customHeight="1">
+      <c r="R28" t="s" s="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" ht="89.25" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3071,17 +3691,17 @@
         <v>18</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" t="s" s="4">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s" s="4">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s" s="4">
         <v>24</v>
@@ -3096,9 +3716,11 @@
       <c r="O29" s="9"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="17"/>
-    </row>
-    <row r="30" ht="12.5" customHeight="1">
+      <c r="R29" t="s" s="15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" ht="89.25" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3109,17 +3731,17 @@
         <v>18</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" t="s" s="4">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s" s="4">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s" s="4">
         <v>24</v>
@@ -3134,9 +3756,11 @@
       <c r="O30" s="9"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="17"/>
-    </row>
-    <row r="31" ht="12.5" customHeight="1">
+      <c r="R30" t="s" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" ht="63.75" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3147,17 +3771,17 @@
         <v>18</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" t="s" s="4">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H31" t="s" s="4">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s" s="4">
         <v>24</v>
@@ -3172,9 +3796,11 @@
       <c r="O31" s="9"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="17"/>
-    </row>
-    <row r="32" ht="12.5" customHeight="1">
+      <c r="R31" t="s" s="15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" ht="89.25" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3185,17 +3811,17 @@
         <v>18</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" t="s" s="4">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H32" t="s" s="4">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I32" t="s" s="4">
         <v>24</v>
@@ -3210,9 +3836,11 @@
       <c r="O32" s="9"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="17"/>
-    </row>
-    <row r="33" ht="12.5" customHeight="1">
+      <c r="R32" t="s" s="15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3223,17 +3851,17 @@
         <v>18</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" t="s" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H33" t="s" s="4">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I33" t="s" s="4">
         <v>24</v>
@@ -3250,7 +3878,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="17"/>
     </row>
-    <row r="34" ht="12.5" customHeight="1">
+    <row r="34" ht="76.5" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3261,17 +3889,17 @@
         <v>18</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" t="s" s="4">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s" s="4">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I34" t="s" s="4">
         <v>24</v>
@@ -3286,9 +3914,11 @@
       <c r="O34" s="9"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="17"/>
-    </row>
-    <row r="35" ht="12.5" customHeight="1">
+      <c r="R34" t="s" s="15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" ht="89.25" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3299,17 +3929,17 @@
         <v>18</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" t="s" s="4">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s" s="4">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="I35" t="s" s="4">
         <v>24</v>
@@ -3324,9 +3954,11 @@
       <c r="O35" s="9"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="14"/>
-      <c r="R35" s="17"/>
-    </row>
-    <row r="36" ht="12.5" customHeight="1">
+      <c r="R35" t="s" s="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" ht="51" customHeight="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3337,17 +3969,17 @@
         <v>18</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" t="s" s="4">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s" s="4">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="I36" t="s" s="4">
         <v>24</v>
@@ -3357,14 +3989,16 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" t="s" s="4">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="17"/>
-    </row>
-    <row r="37" ht="12.5" customHeight="1">
+      <c r="R36" t="s" s="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" ht="63.75" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3375,17 +4009,17 @@
         <v>18</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" t="s" s="4">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s" s="4">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="I37" t="s" s="4">
         <v>24</v>
@@ -3400,9 +4034,11 @@
       <c r="O37" s="9"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="14"/>
-      <c r="R37" s="17"/>
-    </row>
-    <row r="38" ht="12.5" customHeight="1">
+      <c r="R37" t="s" s="15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" ht="63.75" customHeight="1">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3413,17 +4049,17 @@
         <v>18</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" t="s" s="4">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s" s="4">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="I38" t="s" s="4">
         <v>24</v>
@@ -3438,9 +4074,11 @@
       <c r="O38" s="9"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="17"/>
-    </row>
-    <row r="39" ht="12.5" customHeight="1">
+      <c r="R38" t="s" s="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" ht="89.25" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3451,17 +4089,17 @@
         <v>18</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" t="s" s="4">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s" s="4">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s" s="4">
         <v>24</v>
@@ -3476,9 +4114,11 @@
       <c r="O39" s="9"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="14"/>
-      <c r="R39" s="17"/>
-    </row>
-    <row r="40" ht="12.5" customHeight="1">
+      <c r="R39" t="s" s="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" ht="63.75" customHeight="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3489,17 +4129,17 @@
         <v>18</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" t="s" s="4">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="H40" t="s" s="4">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="I40" t="s" s="4">
         <v>24</v>
@@ -3514,9 +4154,11 @@
       <c r="O40" s="9"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="17"/>
-    </row>
-    <row r="41" ht="12.5" customHeight="1">
+      <c r="R40" t="s" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" ht="89.25" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3527,17 +4169,17 @@
         <v>18</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" t="s" s="4">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s" s="4">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="I41" t="s" s="4">
         <v>24</v>
@@ -3552,9 +4194,11 @@
       <c r="O41" s="9"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="17"/>
-    </row>
-    <row r="42" ht="12.5" customHeight="1">
+      <c r="R41" t="s" s="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" ht="38.25" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3565,17 +4209,17 @@
         <v>18</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" t="s" s="4">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="H42" t="s" s="4">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="I42" t="s" s="4">
         <v>24</v>
@@ -3590,9 +4234,11 @@
       <c r="O42" s="9"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="14"/>
-      <c r="R42" s="17"/>
-    </row>
-    <row r="43" ht="12.5" customHeight="1">
+      <c r="R42" t="s" s="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" ht="76.5" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3603,17 +4249,17 @@
         <v>18</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" t="s" s="4">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s" s="4">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I43" t="s" s="4">
         <v>24</v>
@@ -3628,9 +4274,11 @@
       <c r="O43" s="9"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="14"/>
-      <c r="R43" s="17"/>
-    </row>
-    <row r="44" ht="11" customHeight="1">
+      <c r="R43" t="s" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" ht="75.75" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3641,17 +4289,17 @@
         <v>18</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" t="s" s="4">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="H44" t="s" s="4">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="I44" t="s" s="4">
         <v>24</v>
@@ -3666,9 +4314,11 @@
       <c r="O44" s="9"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="14"/>
-      <c r="R44" s="17"/>
-    </row>
-    <row r="45" ht="12.5" customHeight="1">
+      <c r="R44" t="s" s="15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" ht="76.5" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3679,17 +4329,17 @@
         <v>18</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" t="s" s="4">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="H45" t="s" s="4">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="I45" t="s" s="4">
         <v>24</v>
@@ -3704,9 +4354,11 @@
       <c r="O45" s="9"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="14"/>
-      <c r="R45" s="17"/>
-    </row>
-    <row r="46" ht="12.5" customHeight="1">
+      <c r="R45" t="s" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" ht="76.5" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3717,17 +4369,17 @@
         <v>18</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" t="s" s="4">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="H46" t="s" s="4">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="I46" t="s" s="4">
         <v>24</v>
@@ -3742,9 +4394,11 @@
       <c r="O46" s="9"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="14"/>
-      <c r="R46" s="17"/>
-    </row>
-    <row r="47" ht="12.5" customHeight="1">
+      <c r="R46" t="s" s="15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" ht="63.75" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3755,17 +4409,17 @@
         <v>18</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" t="s" s="4">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="H47" t="s" s="4">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="I47" t="s" s="4">
         <v>24</v>
@@ -3780,9 +4434,11 @@
       <c r="O47" s="9"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="14"/>
-      <c r="R47" s="17"/>
-    </row>
-    <row r="48" ht="12.5" customHeight="1">
+      <c r="R47" t="s" s="15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" ht="75.75" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3793,17 +4449,17 @@
         <v>18</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" t="s" s="4">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="H48" t="s" s="4">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s" s="4">
         <v>24</v>
@@ -3818,9 +4474,11 @@
       <c r="O48" s="9"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="14"/>
-      <c r="R48" s="17"/>
-    </row>
-    <row r="49" ht="12.5" customHeight="1">
+      <c r="R48" t="s" s="15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" ht="89.25" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3831,17 +4489,17 @@
         <v>18</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" t="s" s="4">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s" s="4">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="I49" t="s" s="4">
         <v>24</v>
@@ -3856,9 +4514,11 @@
       <c r="O49" s="9"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="14"/>
-      <c r="R49" s="17"/>
-    </row>
-    <row r="50" ht="12.5" customHeight="1">
+      <c r="R49" t="s" s="15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" ht="89.25" customHeight="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3869,17 +4529,17 @@
         <v>18</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" t="s" s="4">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="H50" t="s" s="4">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s" s="4">
         <v>24</v>
@@ -3894,9 +4554,11 @@
       <c r="O50" s="9"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="14"/>
-      <c r="R50" s="17"/>
-    </row>
-    <row r="51" ht="12.5" customHeight="1">
+      <c r="R50" t="s" s="15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" ht="89.25" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3907,17 +4569,17 @@
         <v>18</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" t="s" s="4">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="H51" t="s" s="4">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="I51" t="s" s="4">
         <v>24</v>
@@ -3932,9 +4594,11 @@
       <c r="O51" s="9"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="14"/>
-      <c r="R51" s="17"/>
-    </row>
-    <row r="52" ht="12.5" customHeight="1">
+      <c r="R51" t="s" s="15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" ht="89.25" customHeight="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3945,17 +4609,17 @@
         <v>18</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" t="s" s="4">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="H52" t="s" s="4">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s" s="4">
         <v>24</v>
@@ -3970,9 +4634,11 @@
       <c r="O52" s="9"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="14"/>
-      <c r="R52" s="17"/>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
+      <c r="R52" t="s" s="15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" ht="122.25" customHeight="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -3983,17 +4649,17 @@
         <v>18</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" t="s" s="4">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s" s="4">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="I53" t="s" s="4">
         <v>24</v>
@@ -4008,9 +4674,11 @@
       <c r="O53" s="9"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="14"/>
-      <c r="R53" s="17"/>
-    </row>
-    <row r="54" ht="12.5" customHeight="1">
+      <c r="R53" t="s" s="15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" ht="63.75" customHeight="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -4021,17 +4689,17 @@
         <v>18</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" t="s" s="4">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s" s="4">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="I54" t="s" s="4">
         <v>24</v>
@@ -4046,9 +4714,11 @@
       <c r="O54" s="9"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="14"/>
-      <c r="R54" s="17"/>
-    </row>
-    <row r="55" ht="12.5" customHeight="1">
+      <c r="R54" t="s" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" ht="76.5" customHeight="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -4059,17 +4729,17 @@
         <v>18</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" t="s" s="4">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="H55" t="s" s="4">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s" s="4">
         <v>24</v>
@@ -4084,9 +4754,11 @@
       <c r="O55" s="9"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="14"/>
-      <c r="R55" s="17"/>
-    </row>
-    <row r="56" ht="12.5" customHeight="1">
+      <c r="R55" t="s" s="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" ht="89.25" customHeight="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -4097,17 +4769,17 @@
         <v>18</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" t="s" s="4">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="H56" t="s" s="4">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="I56" t="s" s="4">
         <v>24</v>
@@ -4122,9 +4794,11 @@
       <c r="O56" s="9"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="14"/>
-      <c r="R56" s="17"/>
-    </row>
-    <row r="57" ht="12.5" customHeight="1">
+      <c r="R56" t="s" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" ht="63.75" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4135,17 +4809,17 @@
         <v>18</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" t="s" s="4">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s" s="4">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="I57" t="s" s="4">
         <v>24</v>
@@ -4160,9 +4834,11 @@
       <c r="O57" s="9"/>
       <c r="P57" s="13"/>
       <c r="Q57" s="14"/>
-      <c r="R57" s="17"/>
-    </row>
-    <row r="58" ht="12.5" customHeight="1">
+      <c r="R57" t="s" s="15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" ht="102" customHeight="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -4173,17 +4849,17 @@
         <v>18</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" t="s" s="4">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="H58" t="s" s="4">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I58" t="s" s="4">
         <v>24</v>
@@ -4198,9 +4874,11 @@
       <c r="O58" s="9"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="14"/>
-      <c r="R58" s="17"/>
-    </row>
-    <row r="59" ht="12.5" customHeight="1">
+      <c r="R58" t="s" s="15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" ht="76.5" customHeight="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -4211,17 +4889,17 @@
         <v>18</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" t="s" s="4">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="H59" t="s" s="4">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="I59" t="s" s="4">
         <v>24</v>
@@ -4236,9 +4914,11 @@
       <c r="O59" s="9"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="14"/>
-      <c r="R59" s="17"/>
-    </row>
-    <row r="60" ht="12.5" customHeight="1">
+      <c r="R59" t="s" s="15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" ht="89.25" customHeight="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -4249,17 +4929,17 @@
         <v>18</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" t="s" s="4">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="H60" t="s" s="4">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="I60" t="s" s="4">
         <v>24</v>
@@ -4274,9 +4954,11 @@
       <c r="O60" s="9"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="14"/>
-      <c r="R60" s="17"/>
-    </row>
-    <row r="61" ht="12.5" customHeight="1">
+      <c r="R60" t="s" s="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" ht="76.5" customHeight="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -4287,17 +4969,17 @@
         <v>18</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" t="s" s="4">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="H61" t="s" s="4">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="I61" t="s" s="4">
         <v>24</v>
@@ -4312,9 +4994,11 @@
       <c r="O61" s="9"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="14"/>
-      <c r="R61" s="17"/>
-    </row>
-    <row r="62" ht="12.5" customHeight="1">
+      <c r="R61" t="s" s="15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" ht="89.25" customHeight="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -4325,17 +5009,17 @@
         <v>18</v>
       </c>
       <c r="D62" t="s" s="4">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" t="s" s="4">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="H62" t="s" s="4">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="I62" t="s" s="4">
         <v>24</v>
@@ -4350,9 +5034,11 @@
       <c r="O62" s="9"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="14"/>
-      <c r="R62" s="17"/>
-    </row>
-    <row r="63" ht="12.5" customHeight="1">
+      <c r="R62" t="s" s="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" ht="89.25" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -4363,17 +5049,17 @@
         <v>18</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" t="s" s="4">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s" s="4">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="I63" t="s" s="4">
         <v>24</v>
@@ -4388,9 +5074,11 @@
       <c r="O63" s="9"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="14"/>
-      <c r="R63" s="17"/>
-    </row>
-    <row r="64" ht="12.5" customHeight="1">
+      <c r="R63" t="s" s="15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" ht="38.25" customHeight="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4401,17 +5089,17 @@
         <v>18</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" t="s" s="4">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="H64" t="s" s="4">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="I64" t="s" s="4">
         <v>24</v>
@@ -4426,9 +5114,11 @@
       <c r="O64" s="9"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="14"/>
-      <c r="R64" s="17"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="R64" t="s" s="15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" ht="90" customHeight="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -4439,20 +5129,20 @@
         <v>18</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" t="s" s="4">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="H65" t="s" s="4">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="I65" t="s" s="4">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4464,14 +5154,16 @@
       <c r="O65" s="9"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
+      <c r="R65" t="s" s="18">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display=""/>
     <hyperlink ref="L2" r:id="rId2" location="" tooltip="" display=""/>
     <hyperlink ref="M2" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="R2" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="R29" r:id="rId4" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
